--- a/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>FECHA</t>
   </si>
@@ -29,28 +29,31 @@
     <t>SALDO</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>SALDO ANTERIOR</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>11/12/2023</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>11/12/2023 05:36:55 p. m.</t>
-  </si>
-  <si>
-    <t>aaaa</t>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
   <si>
     <t>100.00</t>
   </si>
   <si>
-    <t>220.00</t>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>400.00</t>
   </si>
 </sst>
 </file>
@@ -133,11 +136,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.71484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.94921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.05078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -159,36 +162,53 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s" s="1">
         <v>7</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="C3" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="E3" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s" s="1">
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="1">
         <v>12</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>FECHA</t>
   </si>
@@ -38,22 +38,64 @@
     <t>600.00</t>
   </si>
   <si>
-    <t>12/12/2023</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>400.00</t>
+    <t>16/12/2023</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
   </si>
 </sst>
 </file>
@@ -205,10 +247,112 @@
         <v>5</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
@@ -17,7 +17,7 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>DESCRIPCION</t>
+    <t>NÚMERO DE COMPROBANTE</t>
   </si>
   <si>
     <t>INGRESO</t>
@@ -41,7 +41,7 @@
     <t>16/12/2023</t>
   </si>
   <si>
-    <t>bb</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>50.00</t>
@@ -50,9 +50,6 @@
     <t>550.00</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -62,40 +59,43 @@
     <t>17/12/2023</t>
   </si>
   <si>
-    <t>cc</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>480.00</t>
   </si>
   <si>
-    <t>dd</t>
-  </si>
-  <si>
     <t>450.00</t>
   </si>
   <si>
     <t>18/12/2023</t>
   </si>
   <si>
-    <t>ee</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
     <t>430.00</t>
   </si>
   <si>
-    <t>ff</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
     <t>420.00</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>RH rhhh</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>SALDO FINAL</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -118,6 +118,15 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,10 +169,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -178,11 +187,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.94921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.05078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.11328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.1796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -203,19 +212,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="1">
+      <c r="A2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s" s="1">
+      <c r="C2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
@@ -241,64 +250,64 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="1">
+      <c r="E4" t="s" s="1">
         <v>13</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>5</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="1">
+      <c r="E6" t="s" s="1">
         <v>17</v>
-      </c>
-      <c r="E6" t="s" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="1">
         <v>19</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>17</v>
       </c>
       <c r="E7" t="s" s="1">
         <v>20</v>
@@ -306,53 +315,53 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s" s="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="1">
+      <c r="B10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="E10" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
@@ -86,7 +86,7 @@
     <t>19/12/2023</t>
   </si>
   <si>
-    <t>RH rhhh</t>
+    <t>Planilla de movilidad hola</t>
   </si>
   <si>
     <t>100.00</t>

--- a/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>FECHA</t>
   </si>
@@ -38,61 +38,31 @@
     <t>600.00</t>
   </si>
   <si>
-    <t>16/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>510.00</t>
-  </si>
-  <si>
-    <t>17/12/2023</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>480.00</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>18/12/2023</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>430.00</t>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>Vale Provicional 00001</t>
   </si>
   <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>420.00</t>
-  </si>
-  <si>
-    <t>19/12/2023</t>
-  </si>
-  <si>
-    <t>Planilla de movilidad hola</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>520.00</t>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>Factura ft02-0001</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>593.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>RH ri-0045</t>
   </si>
   <si>
     <t>SALDO FINAL</t>
@@ -187,7 +157,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.70703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.7734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.1796875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.21875" customWidth="true" bestFit="true"/>
@@ -253,35 +223,35 @@
         <v>9</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="1">
         <v>14</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="1">
         <v>9</v>
@@ -293,75 +263,41 @@
         <v>15</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>26</v>
+      <c r="A8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Detalle Caja.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>FECHA</t>
   </si>
   <si>
-    <t>NÚMERO DE COMPROBANTE</t>
+    <t>DESCRIPCION</t>
   </si>
   <si>
     <t>INGRESO</t>
@@ -41,7 +41,7 @@
     <t>16/12/2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>bb</t>
   </si>
   <si>
     <t>50.00</t>
@@ -50,33 +50,51 @@
     <t>550.00</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>510.00</t>
   </si>
   <si>
+    <t>SALDO FINAL</t>
+  </si>
+  <si>
     <t>17/12/2023</t>
   </si>
   <si>
+    <t>cc</t>
+  </si>
+  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>480.00</t>
   </si>
   <si>
+    <t>dd</t>
+  </si>
+  <si>
     <t>450.00</t>
   </si>
   <si>
     <t>18/12/2023</t>
   </si>
   <si>
+    <t>ee</t>
+  </si>
+  <si>
     <t>20.00</t>
   </si>
   <si>
     <t>430.00</t>
   </si>
   <si>
+    <t>ff</t>
+  </si>
+  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -86,16 +104,13 @@
     <t>19/12/2023</t>
   </si>
   <si>
-    <t>Planilla de movilidad hola</t>
+    <t>Planilla de movilidad hola / Hola</t>
   </si>
   <si>
     <t>100.00</t>
   </si>
   <si>
     <t>520.00</t>
-  </si>
-  <si>
-    <t>SALDO FINAL</t>
   </si>
 </sst>
 </file>
@@ -188,10 +203,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.1796875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.1796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -250,118 +265,169 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>5</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>5</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>19</v>
-      </c>
       <c r="E7" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="1">
+      <c r="A8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="E8" t="s" s="1">
-        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="C9" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="1">
+      <c r="E9" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="D9" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s" s="1">
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>26</v>
+      <c r="E10" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
